--- a/docs/StructureDefinition-hla-c.xlsx
+++ b/docs/StructureDefinition-hla-c.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T21:07:13-05:00</t>
+    <t>2022-06-30T09:28:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1492,7 +1492,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(http://fhir.nmdp.org/ig/matchsource/StructureDefinition/msspecimen)
 </t>
   </si>
   <si>
@@ -9999,7 +9999,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>469</v>
       </c>
@@ -10009,13 +10009,13 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>

--- a/docs/StructureDefinition-hla-c.xlsx
+++ b/docs/StructureDefinition-hla-c.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T09:28:59-05:00</t>
+    <t>2022-06-30T15:55:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -14022,7 +14022,7 @@
         <v>88</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>89</v>

--- a/docs/StructureDefinition-hla-c.xlsx
+++ b/docs/StructureDefinition-hla-c.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T15:55:55-05:00</t>
+    <t>2022-07-26T16:10:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2306,14 +2306,14 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.87890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.8828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2326,26 +2326,26 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.55078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.09765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="242.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.8828125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-hla-c.xlsx
+++ b/docs/StructureDefinition-hla-c.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:10:15-05:00</t>
+    <t>2022-07-26T16:47:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-hla-c.xlsx
+++ b/docs/StructureDefinition-hla-c.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:47:03-05:00</t>
+    <t>2022-07-28T10:15:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-hla-c.xlsx
+++ b/docs/StructureDefinition-hla-c.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-hla-c.xlsx
+++ b/docs/StructureDefinition-hla-c.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T14:44:07-05:00</t>
+    <t>2022-12-01T09:35:21-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-hla-c.xlsx
+++ b/docs/StructureDefinition-hla-c.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T09:36:27-06:00</t>
+    <t>2023-02-16T14:43:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-hla-c.xlsx
+++ b/docs/StructureDefinition-hla-c.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:43:10-06:00</t>
+    <t>2023-03-28T10:23:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-hla-c.xlsx
+++ b/docs/StructureDefinition-hla-c.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:23:42-05:00</t>
+    <t>2023-04-06T10:47:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
